--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
   <si>
     <t>变量名称</t>
   </si>
@@ -221,85 +221,361 @@
     <t>0x0018</t>
   </si>
   <si>
-    <t>脉冲个数</t>
-  </si>
-  <si>
     <t>long int</t>
   </si>
   <si>
-    <t>脉冲频率</t>
-  </si>
-  <si>
-    <t>电机步进角</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>丝杆丝距</t>
-  </si>
-  <si>
-    <t>电机减速比</t>
-  </si>
-  <si>
-    <t>丝杆导程</t>
-  </si>
-  <si>
-    <t>当前位置</t>
-  </si>
-  <si>
-    <t>初始位置</t>
-  </si>
-  <si>
-    <t>0：不是  1：是</t>
-  </si>
-  <si>
-    <t>参数设置保存</t>
-  </si>
-  <si>
     <t>按键返回</t>
   </si>
   <si>
-    <t>1~20</t>
-  </si>
-  <si>
-    <t>初始化按钮</t>
-  </si>
-  <si>
     <t>后退按钮</t>
   </si>
   <si>
     <t>前进按钮</t>
   </si>
   <si>
-    <t>电机旋转角</t>
-  </si>
-  <si>
-    <t>pulseSettingNum</t>
-  </si>
-  <si>
-    <t>pulseSettingFreq</t>
-  </si>
-  <si>
-    <t>motorStepAngle</t>
-  </si>
-  <si>
-    <t>screwPitch</t>
-  </si>
-  <si>
-    <t>motorReducGearRatio</t>
-  </si>
-  <si>
-    <t>ballScrew</t>
-  </si>
-  <si>
-    <t>motorRotationAngle</t>
-  </si>
-  <si>
-    <t>currentPosition</t>
-  </si>
-  <si>
-    <t>isStartPosition</t>
+    <t>指令方向</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>0：停止 1：运行</t>
+  </si>
+  <si>
+    <t>当前过程</t>
+  </si>
+  <si>
+    <t>回零按钮</t>
+  </si>
+  <si>
+    <t>运行按钮</t>
+  </si>
+  <si>
+    <t>停止按钮</t>
+  </si>
+  <si>
+    <t>跟随按钮</t>
+  </si>
+  <si>
+    <t>过程一前进</t>
+  </si>
+  <si>
+    <t>过程一后退</t>
+  </si>
+  <si>
+    <t>过程一前进按钮</t>
+  </si>
+  <si>
+    <t>过程一后退按钮</t>
+  </si>
+  <si>
+    <t>过程二前进按钮</t>
+  </si>
+  <si>
+    <t>过程二后退按钮</t>
+  </si>
+  <si>
+    <t>过程三前进按钮</t>
+  </si>
+  <si>
+    <t>过程三后退按钮</t>
+  </si>
+  <si>
+    <t>0x001A</t>
+  </si>
+  <si>
+    <t>0x001C</t>
+  </si>
+  <si>
+    <t>0x001E</t>
+  </si>
+  <si>
+    <t>0x0020</t>
+  </si>
+  <si>
+    <t>0x0022</t>
+  </si>
+  <si>
+    <t>0x0024</t>
+  </si>
+  <si>
+    <t>0x0026</t>
+  </si>
+  <si>
+    <t>0x0028</t>
+  </si>
+  <si>
+    <t>0x002A</t>
+  </si>
+  <si>
+    <t>0x002C</t>
+  </si>
+  <si>
+    <t>0x002E</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>0x0032</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>0x0036</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>0x003A</t>
+  </si>
+  <si>
+    <t>0x003C</t>
+  </si>
+  <si>
+    <t>0x003E</t>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>0x0042</t>
+  </si>
+  <si>
+    <t>0x0044</t>
+  </si>
+  <si>
+    <t>0x0046</t>
+  </si>
+  <si>
+    <t>0x0048</t>
+  </si>
+  <si>
+    <t>0x004A</t>
+  </si>
+  <si>
+    <t>0x004C</t>
+  </si>
+  <si>
+    <t>0x004E</t>
+  </si>
+  <si>
+    <t>0x0050</t>
+  </si>
+  <si>
+    <t>0x0052</t>
+  </si>
+  <si>
+    <t>0x0054</t>
+  </si>
+  <si>
+    <t>0x0056</t>
+  </si>
+  <si>
+    <t>0x0058</t>
+  </si>
+  <si>
+    <t>0x005A</t>
+  </si>
+  <si>
+    <t>0x005C</t>
+  </si>
+  <si>
+    <t>0x005E</t>
+  </si>
+  <si>
+    <t>保存按钮</t>
+  </si>
+  <si>
+    <t>过程二前进</t>
+  </si>
+  <si>
+    <t>过程二后退</t>
+  </si>
+  <si>
+    <t>过程三前进</t>
+  </si>
+  <si>
+    <t>过程三后退</t>
+  </si>
+  <si>
+    <t>0：非激活 1：激活</t>
+  </si>
+  <si>
+    <t>返回按钮</t>
+  </si>
+  <si>
+    <t>累加角度（脉冲）</t>
+  </si>
+  <si>
+    <t>步脉冲数 01</t>
+  </si>
+  <si>
+    <t>步脉冲数 02</t>
+  </si>
+  <si>
+    <t>步脉冲数 03</t>
+  </si>
+  <si>
+    <t>步脉冲数 04</t>
+  </si>
+  <si>
+    <t>步脉冲数 05</t>
+  </si>
+  <si>
+    <t>步脉冲数 06</t>
+  </si>
+  <si>
+    <t>步脉冲数 07</t>
+  </si>
+  <si>
+    <t>步脉冲数 08</t>
+  </si>
+  <si>
+    <t>步脉冲数 09</t>
+  </si>
+  <si>
+    <t>步脉冲数 10</t>
+  </si>
+  <si>
+    <t>步脉冲数 11</t>
+  </si>
+  <si>
+    <t>步脉冲数 12</t>
+  </si>
+  <si>
+    <t>步脉冲数 13</t>
+  </si>
+  <si>
+    <t>步脉冲数 14</t>
+  </si>
+  <si>
+    <t>步脉冲数 15</t>
+  </si>
+  <si>
+    <t>步脉冲数 16</t>
+  </si>
+  <si>
+    <t>步脉冲数 17</t>
+  </si>
+  <si>
+    <t>步脉冲数 18</t>
+  </si>
+  <si>
+    <t>步脉冲数 19</t>
+  </si>
+  <si>
+    <t>步脉冲数 20</t>
+  </si>
+  <si>
+    <t>步脉冲数 21</t>
+  </si>
+  <si>
+    <t>步脉冲数 22</t>
+  </si>
+  <si>
+    <t>步脉冲数 23</t>
+  </si>
+  <si>
+    <t>步脉冲数 24</t>
+  </si>
+  <si>
+    <t>步脉冲数 25</t>
+  </si>
+  <si>
+    <t>步脉冲数 26</t>
+  </si>
+  <si>
+    <t>步脉冲数 27</t>
+  </si>
+  <si>
+    <t>步脉冲数 28</t>
+  </si>
+  <si>
+    <t>步脉冲数 29</t>
+  </si>
+  <si>
+    <t>步脉冲数 30</t>
+  </si>
+  <si>
+    <t>步脉冲数 31</t>
+  </si>
+  <si>
+    <t>步脉冲数 32</t>
+  </si>
+  <si>
+    <t>步脉冲数 33</t>
+  </si>
+  <si>
+    <t>步脉冲数 34</t>
+  </si>
+  <si>
+    <t>步脉冲数 35</t>
+  </si>
+  <si>
+    <t>步脉冲数 36</t>
+  </si>
+  <si>
+    <t>步脉冲数 37</t>
+  </si>
+  <si>
+    <t>步脉冲数 38</t>
+  </si>
+  <si>
+    <t>步脉冲数 39</t>
+  </si>
+  <si>
+    <t>步脉冲数 40</t>
+  </si>
+  <si>
+    <t>0x0060</t>
+  </si>
+  <si>
+    <t>0x0062</t>
+  </si>
+  <si>
+    <t>0x0064</t>
+  </si>
+  <si>
+    <t>0x0066</t>
+  </si>
+  <si>
+    <t>0x0068</t>
+  </si>
+  <si>
+    <t>0x006A</t>
+  </si>
+  <si>
+    <t>0x006C</t>
+  </si>
+  <si>
+    <t>0x006E</t>
+  </si>
+  <si>
+    <t>0x0070</t>
+  </si>
+  <si>
+    <t>0x0072</t>
+  </si>
+  <si>
+    <t>0x0074</t>
+  </si>
+  <si>
+    <t>0x0076</t>
+  </si>
+  <si>
+    <t>0x0078</t>
+  </si>
+  <si>
+    <t>0x007A</t>
+  </si>
+  <si>
+    <t>0x007C</t>
   </si>
 </sst>
 </file>
@@ -440,7 +716,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -719,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,13 +1026,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,13 +1037,10 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,13 +1048,10 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,13 +1059,10 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,13 +1070,10 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,13 +1081,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,13 +1092,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,10 +1103,10 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,13 +1114,10 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -873,13 +1125,10 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -887,10 +1136,10 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -898,10 +1147,10 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,10 +1158,560 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -925,9 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -937,6 +1734,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>过程一后退</t>
   </si>
   <si>
-    <t>过程一前进按钮</t>
-  </si>
-  <si>
     <t>过程一后退按钮</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>0x007C</t>
+  </si>
+  <si>
+    <t>过程一前进按钮\设置按钮</t>
   </si>
 </sst>
 </file>
@@ -998,14 +998,13 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1048,7 +1047,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1125,7 +1124,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1136,7 +1135,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -1147,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -1158,7 +1157,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -1166,10 +1165,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1177,10 +1176,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1188,10 +1187,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1199,10 +1198,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
@@ -1210,76 +1209,76 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -1287,10 +1286,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>69</v>
@@ -1298,10 +1297,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
@@ -1309,10 +1308,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
@@ -1320,10 +1319,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -1331,10 +1330,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>69</v>
@@ -1342,10 +1341,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
@@ -1353,10 +1352,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
@@ -1364,10 +1363,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>69</v>
@@ -1375,10 +1374,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -1386,10 +1385,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -1397,10 +1396,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -1408,10 +1407,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>69</v>
@@ -1419,10 +1418,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
         <v>69</v>
@@ -1430,10 +1429,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>69</v>
@@ -1441,10 +1440,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -1452,10 +1451,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>69</v>
@@ -1463,10 +1462,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
         <v>69</v>
@@ -1474,10 +1473,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>69</v>
@@ -1485,10 +1484,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -1496,10 +1495,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
         <v>69</v>
@@ -1507,10 +1506,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -1518,10 +1517,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
         <v>69</v>
@@ -1529,10 +1528,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
@@ -1540,10 +1539,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
         <v>69</v>
@@ -1551,10 +1550,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
         <v>69</v>
@@ -1562,10 +1561,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
         <v>69</v>
@@ -1573,10 +1572,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
@@ -1584,10 +1583,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -1595,10 +1594,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -1606,10 +1605,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -1617,10 +1616,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
@@ -1628,10 +1627,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -1639,10 +1638,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
@@ -1650,10 +1649,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
         <v>69</v>
@@ -1661,10 +1660,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
@@ -1672,10 +1671,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
         <v>69</v>
@@ -1683,10 +1682,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -1694,10 +1693,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
         <v>69</v>
@@ -1705,10 +1704,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="191">
   <si>
     <t>变量名称</t>
   </si>
@@ -188,12 +188,6 @@
     <t>0x0002</t>
   </si>
   <si>
-    <t>0x0004</t>
-  </si>
-  <si>
-    <t>0x0006</t>
-  </si>
-  <si>
     <t>0x0008</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
     <t>0：停止 1：运行</t>
   </si>
   <si>
-    <t>当前过程</t>
-  </si>
-  <si>
     <t>回零按钮</t>
   </si>
   <si>
@@ -407,9 +398,6 @@
     <t>返回按钮</t>
   </si>
   <si>
-    <t>累加角度（脉冲）</t>
-  </si>
-  <si>
     <t>步脉冲数 01</t>
   </si>
   <si>
@@ -576,6 +564,30 @@
   </si>
   <si>
     <t>过程一前进按钮\设置按钮</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>电机1过程</t>
+  </si>
+  <si>
+    <t>电机2过程</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t>0x0007</t>
+  </si>
+  <si>
+    <t>电机1角度</t>
+  </si>
+  <si>
+    <t>电机2角度</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,692 +1037,714 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1768,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21156" windowHeight="7008"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
   <si>
     <t>变量名称</t>
   </si>
@@ -584,10 +584,49 @@
     <t>0x0007</t>
   </si>
   <si>
-    <t>电机1角度</t>
-  </si>
-  <si>
-    <t>电机2角度</t>
+    <t>0x0080</t>
+  </si>
+  <si>
+    <t>0x0081</t>
+  </si>
+  <si>
+    <t>0x0082</t>
+  </si>
+  <si>
+    <t>电机1位置</t>
+  </si>
+  <si>
+    <t>电机2位置</t>
+  </si>
+  <si>
+    <t>电机3过程</t>
+  </si>
+  <si>
+    <t>电机4过程</t>
+  </si>
+  <si>
+    <t>电机3位置</t>
+  </si>
+  <si>
+    <t>电机4位置</t>
+  </si>
+  <si>
+    <t>0x0083</t>
+  </si>
+  <si>
+    <t>切换组别按钮</t>
+  </si>
+  <si>
+    <t>0x0084</t>
+  </si>
+  <si>
+    <t>0x0085</t>
+  </si>
+  <si>
+    <t>当前组别</t>
+  </si>
+  <si>
+    <t>1: 一组  2: 二组</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1109,7 @@
         <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -1081,7 +1120,7 @@
         <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -1745,6 +1784,72 @@
       </c>
       <c r="C66" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21156" windowHeight="7008"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="195">
   <si>
     <t>变量名称</t>
   </si>
@@ -191,9 +191,6 @@
     <t>0x0008</t>
   </si>
   <si>
-    <t>0x000A</t>
-  </si>
-  <si>
     <t>0x0010</t>
   </si>
   <si>
@@ -206,30 +203,12 @@
     <t>0x0016</t>
   </si>
   <si>
-    <t>0x000C</t>
-  </si>
-  <si>
-    <t>0x000E</t>
-  </si>
-  <si>
     <t>0x0018</t>
   </si>
   <si>
-    <t>long int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>按键返回</t>
   </si>
   <si>
-    <t>后退按钮</t>
-  </si>
-  <si>
-    <t>前进按钮</t>
-  </si>
-  <si>
     <t>指令方向</t>
   </si>
   <si>
@@ -239,48 +218,6 @@
     <t>0：停止 1：运行</t>
   </si>
   <si>
-    <t>回零按钮</t>
-  </si>
-  <si>
-    <t>运行按钮</t>
-  </si>
-  <si>
-    <t>停止按钮</t>
-  </si>
-  <si>
-    <t>跟随按钮</t>
-  </si>
-  <si>
-    <t>过程一前进</t>
-  </si>
-  <si>
-    <t>过程一后退</t>
-  </si>
-  <si>
-    <t>过程一后退按钮</t>
-  </si>
-  <si>
-    <t>过程二前进按钮</t>
-  </si>
-  <si>
-    <t>过程二后退按钮</t>
-  </si>
-  <si>
-    <t>过程三前进按钮</t>
-  </si>
-  <si>
-    <t>过程三后退按钮</t>
-  </si>
-  <si>
-    <t>0x001A</t>
-  </si>
-  <si>
-    <t>0x001C</t>
-  </si>
-  <si>
-    <t>0x001E</t>
-  </si>
-  <si>
     <t>0x0020</t>
   </si>
   <si>
@@ -296,15 +233,6 @@
     <t>0x0028</t>
   </si>
   <si>
-    <t>0x002A</t>
-  </si>
-  <si>
-    <t>0x002C</t>
-  </si>
-  <si>
-    <t>0x002E</t>
-  </si>
-  <si>
     <t>0x0030</t>
   </si>
   <si>
@@ -320,15 +248,6 @@
     <t>0x0038</t>
   </si>
   <si>
-    <t>0x003A</t>
-  </si>
-  <si>
-    <t>0x003C</t>
-  </si>
-  <si>
-    <t>0x003E</t>
-  </si>
-  <si>
     <t>0x0040</t>
   </si>
   <si>
@@ -344,15 +263,6 @@
     <t>0x0048</t>
   </si>
   <si>
-    <t>0x004A</t>
-  </si>
-  <si>
-    <t>0x004C</t>
-  </si>
-  <si>
-    <t>0x004E</t>
-  </si>
-  <si>
     <t>0x0050</t>
   </si>
   <si>
@@ -368,156 +278,6 @@
     <t>0x0058</t>
   </si>
   <si>
-    <t>0x005A</t>
-  </si>
-  <si>
-    <t>0x005C</t>
-  </si>
-  <si>
-    <t>0x005E</t>
-  </si>
-  <si>
-    <t>保存按钮</t>
-  </si>
-  <si>
-    <t>过程二前进</t>
-  </si>
-  <si>
-    <t>过程二后退</t>
-  </si>
-  <si>
-    <t>过程三前进</t>
-  </si>
-  <si>
-    <t>过程三后退</t>
-  </si>
-  <si>
-    <t>0：非激活 1：激活</t>
-  </si>
-  <si>
-    <t>返回按钮</t>
-  </si>
-  <si>
-    <t>步脉冲数 01</t>
-  </si>
-  <si>
-    <t>步脉冲数 02</t>
-  </si>
-  <si>
-    <t>步脉冲数 03</t>
-  </si>
-  <si>
-    <t>步脉冲数 04</t>
-  </si>
-  <si>
-    <t>步脉冲数 05</t>
-  </si>
-  <si>
-    <t>步脉冲数 06</t>
-  </si>
-  <si>
-    <t>步脉冲数 07</t>
-  </si>
-  <si>
-    <t>步脉冲数 08</t>
-  </si>
-  <si>
-    <t>步脉冲数 09</t>
-  </si>
-  <si>
-    <t>步脉冲数 10</t>
-  </si>
-  <si>
-    <t>步脉冲数 11</t>
-  </si>
-  <si>
-    <t>步脉冲数 12</t>
-  </si>
-  <si>
-    <t>步脉冲数 13</t>
-  </si>
-  <si>
-    <t>步脉冲数 14</t>
-  </si>
-  <si>
-    <t>步脉冲数 15</t>
-  </si>
-  <si>
-    <t>步脉冲数 16</t>
-  </si>
-  <si>
-    <t>步脉冲数 17</t>
-  </si>
-  <si>
-    <t>步脉冲数 18</t>
-  </si>
-  <si>
-    <t>步脉冲数 19</t>
-  </si>
-  <si>
-    <t>步脉冲数 20</t>
-  </si>
-  <si>
-    <t>步脉冲数 21</t>
-  </si>
-  <si>
-    <t>步脉冲数 22</t>
-  </si>
-  <si>
-    <t>步脉冲数 23</t>
-  </si>
-  <si>
-    <t>步脉冲数 24</t>
-  </si>
-  <si>
-    <t>步脉冲数 25</t>
-  </si>
-  <si>
-    <t>步脉冲数 26</t>
-  </si>
-  <si>
-    <t>步脉冲数 27</t>
-  </si>
-  <si>
-    <t>步脉冲数 28</t>
-  </si>
-  <si>
-    <t>步脉冲数 29</t>
-  </si>
-  <si>
-    <t>步脉冲数 30</t>
-  </si>
-  <si>
-    <t>步脉冲数 31</t>
-  </si>
-  <si>
-    <t>步脉冲数 32</t>
-  </si>
-  <si>
-    <t>步脉冲数 33</t>
-  </si>
-  <si>
-    <t>步脉冲数 34</t>
-  </si>
-  <si>
-    <t>步脉冲数 35</t>
-  </si>
-  <si>
-    <t>步脉冲数 36</t>
-  </si>
-  <si>
-    <t>步脉冲数 37</t>
-  </si>
-  <si>
-    <t>步脉冲数 38</t>
-  </si>
-  <si>
-    <t>步脉冲数 39</t>
-  </si>
-  <si>
-    <t>步脉冲数 40</t>
-  </si>
-  <si>
     <t>0x0060</t>
   </si>
   <si>
@@ -533,48 +293,15 @@
     <t>0x0068</t>
   </si>
   <si>
-    <t>0x006A</t>
-  </si>
-  <si>
-    <t>0x006C</t>
-  </si>
-  <si>
-    <t>0x006E</t>
-  </si>
-  <si>
     <t>0x0070</t>
   </si>
   <si>
     <t>0x0072</t>
   </si>
   <si>
-    <t>0x0074</t>
-  </si>
-  <si>
-    <t>0x0076</t>
-  </si>
-  <si>
-    <t>0x0078</t>
-  </si>
-  <si>
-    <t>0x007A</t>
-  </si>
-  <si>
-    <t>0x007C</t>
-  </si>
-  <si>
-    <t>过程一前进按钮\设置按钮</t>
-  </si>
-  <si>
     <t>0x0001</t>
   </si>
   <si>
-    <t>电机1过程</t>
-  </si>
-  <si>
-    <t>电机2过程</t>
-  </si>
-  <si>
     <t>0x0003</t>
   </si>
   <si>
@@ -584,49 +311,295 @@
     <t>0x0007</t>
   </si>
   <si>
-    <t>0x0080</t>
-  </si>
-  <si>
-    <t>0x0081</t>
-  </si>
-  <si>
-    <t>0x0082</t>
-  </si>
-  <si>
-    <t>电机1位置</t>
-  </si>
-  <si>
-    <t>电机2位置</t>
-  </si>
-  <si>
-    <t>电机3过程</t>
-  </si>
-  <si>
-    <t>电机4过程</t>
-  </si>
-  <si>
-    <t>电机3位置</t>
-  </si>
-  <si>
-    <t>电机4位置</t>
-  </si>
-  <si>
-    <t>0x0083</t>
-  </si>
-  <si>
-    <t>切换组别按钮</t>
-  </si>
-  <si>
-    <t>0x0084</t>
-  </si>
-  <si>
-    <t>0x0085</t>
-  </si>
-  <si>
-    <t>当前组别</t>
-  </si>
-  <si>
-    <t>1: 一组  2: 二组</t>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>花样号</t>
+  </si>
+  <si>
+    <t>当前步数</t>
+  </si>
+  <si>
+    <t>总步数</t>
+  </si>
+  <si>
+    <t>电机速度</t>
+  </si>
+  <si>
+    <t>电机步数1</t>
+  </si>
+  <si>
+    <t>电机步数2</t>
+  </si>
+  <si>
+    <t>电机步数3</t>
+  </si>
+  <si>
+    <t>电机步数4</t>
+  </si>
+  <si>
+    <t>电机步数5</t>
+  </si>
+  <si>
+    <t>电机步数6</t>
+  </si>
+  <si>
+    <t>电机步数7</t>
+  </si>
+  <si>
+    <t>电机步数8</t>
+  </si>
+  <si>
+    <t>电磁铁1~16</t>
+  </si>
+  <si>
+    <t>电磁铁17~32</t>
+  </si>
+  <si>
+    <t>运行按键</t>
+  </si>
+  <si>
+    <t>停止按键</t>
+  </si>
+  <si>
+    <t>选花按键</t>
+  </si>
+  <si>
+    <t>外卡按键</t>
+  </si>
+  <si>
+    <t>编程按键</t>
+  </si>
+  <si>
+    <t>上一花样按键</t>
+  </si>
+  <si>
+    <t>下一花样按键</t>
+  </si>
+  <si>
+    <t>上一步按键</t>
+  </si>
+  <si>
+    <t>下一步按键</t>
+  </si>
+  <si>
+    <t>加步按键</t>
+  </si>
+  <si>
+    <t>减步按键</t>
+  </si>
+  <si>
+    <t>增花按键</t>
+  </si>
+  <si>
+    <t>删花按键</t>
+  </si>
+  <si>
+    <t>保存按键</t>
+  </si>
+  <si>
+    <t>返回按键</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>0x0009</t>
+  </si>
+  <si>
+    <t>0x0011</t>
+  </si>
+  <si>
+    <t>0x0013</t>
+  </si>
+  <si>
+    <t>0x0015</t>
+  </si>
+  <si>
+    <t>0x0017</t>
+  </si>
+  <si>
+    <t>0x0019</t>
+  </si>
+  <si>
+    <t>0x0021</t>
+  </si>
+  <si>
+    <t>0x0023</t>
+  </si>
+  <si>
+    <t>0x0025</t>
+  </si>
+  <si>
+    <t>0x0027</t>
+  </si>
+  <si>
+    <t>0x0029</t>
+  </si>
+  <si>
+    <t>0x0031</t>
+  </si>
+  <si>
+    <t>0x0033</t>
+  </si>
+  <si>
+    <t>0x0035</t>
+  </si>
+  <si>
+    <t>0x0037</t>
+  </si>
+  <si>
+    <t>0x0039</t>
+  </si>
+  <si>
+    <t>0x0041</t>
+  </si>
+  <si>
+    <t>0x0043</t>
+  </si>
+  <si>
+    <t>0x0045</t>
+  </si>
+  <si>
+    <t>0x0047</t>
+  </si>
+  <si>
+    <t>0x0049</t>
+  </si>
+  <si>
+    <t>0x0051</t>
+  </si>
+  <si>
+    <t>0x0053</t>
+  </si>
+  <si>
+    <t>0x0055</t>
+  </si>
+  <si>
+    <t>0x0057</t>
+  </si>
+  <si>
+    <t>0x0059</t>
+  </si>
+  <si>
+    <t>0x0061</t>
+  </si>
+  <si>
+    <t>0x0063</t>
+  </si>
+  <si>
+    <t>0x0065</t>
+  </si>
+  <si>
+    <t>0x0067</t>
+  </si>
+  <si>
+    <t>0x0069</t>
+  </si>
+  <si>
+    <t>0x0071</t>
+  </si>
+  <si>
+    <t>0x0073</t>
+  </si>
+  <si>
+    <t>电磁铁33~48</t>
+  </si>
+  <si>
+    <t>电磁铁49~64</t>
+  </si>
+  <si>
+    <t>电磁铁65~80</t>
+  </si>
+  <si>
+    <t>电磁铁81~96</t>
+  </si>
+  <si>
+    <t>电磁铁97~112</t>
+  </si>
+  <si>
+    <t>电磁铁113~128</t>
+  </si>
+  <si>
+    <t>电磁铁129~144</t>
+  </si>
+  <si>
+    <t>电磁铁145~160</t>
+  </si>
+  <si>
+    <t>电磁铁161~176</t>
+  </si>
+  <si>
+    <t>电磁铁177~192</t>
+  </si>
+  <si>
+    <t>电磁铁193~208</t>
+  </si>
+  <si>
+    <t>电磁铁209~224</t>
+  </si>
+  <si>
+    <t>电磁铁225~240</t>
+  </si>
+  <si>
+    <t>电磁铁241~256</t>
+  </si>
+  <si>
+    <t>电磁铁257~272</t>
+  </si>
+  <si>
+    <t>电磁铁273~288</t>
+  </si>
+  <si>
+    <t>电磁铁289~304</t>
+  </si>
+  <si>
+    <t>电磁铁305~320</t>
+  </si>
+  <si>
+    <t>电磁铁321~336</t>
+  </si>
+  <si>
+    <t>电磁铁337~352</t>
+  </si>
+  <si>
+    <t>电磁铁353~368</t>
+  </si>
+  <si>
+    <t>电磁铁369~384</t>
+  </si>
+  <si>
+    <t>电磁铁385~400</t>
+  </si>
+  <si>
+    <t>电磁铁401~416</t>
+  </si>
+  <si>
+    <t>电磁铁417~432</t>
+  </si>
+  <si>
+    <t>电磁铁433~448</t>
+  </si>
+  <si>
+    <t>16bit</t>
+  </si>
+  <si>
+    <t>8bit</t>
+  </si>
+  <si>
+    <t>电磁铁449~464</t>
+  </si>
+  <si>
+    <t>电磁铁465~480</t>
+  </si>
+  <si>
+    <t>电磁铁481~496</t>
+  </si>
+  <si>
+    <t>电磁铁497~512</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,21 +1049,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,758 +1071,713 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t>变量名称</t>
   </si>
@@ -257,48 +257,6 @@
     <t>0x0044</t>
   </si>
   <si>
-    <t>0x0046</t>
-  </si>
-  <si>
-    <t>0x0048</t>
-  </si>
-  <si>
-    <t>0x0050</t>
-  </si>
-  <si>
-    <t>0x0052</t>
-  </si>
-  <si>
-    <t>0x0054</t>
-  </si>
-  <si>
-    <t>0x0056</t>
-  </si>
-  <si>
-    <t>0x0058</t>
-  </si>
-  <si>
-    <t>0x0060</t>
-  </si>
-  <si>
-    <t>0x0062</t>
-  </si>
-  <si>
-    <t>0x0064</t>
-  </si>
-  <si>
-    <t>0x0066</t>
-  </si>
-  <si>
-    <t>0x0068</t>
-  </si>
-  <si>
-    <t>0x0070</t>
-  </si>
-  <si>
-    <t>0x0072</t>
-  </si>
-  <si>
     <t>0x0001</t>
   </si>
   <si>
@@ -323,9 +281,6 @@
     <t>总步数</t>
   </si>
   <si>
-    <t>电机速度</t>
-  </si>
-  <si>
     <t>电机步数1</t>
   </si>
   <si>
@@ -338,18 +293,6 @@
     <t>电机步数4</t>
   </si>
   <si>
-    <t>电机步数5</t>
-  </si>
-  <si>
-    <t>电机步数6</t>
-  </si>
-  <si>
-    <t>电机步数7</t>
-  </si>
-  <si>
-    <t>电机步数8</t>
-  </si>
-  <si>
     <t>电磁铁1~16</t>
   </si>
   <si>
@@ -395,9 +338,6 @@
     <t>删花按键</t>
   </si>
   <si>
-    <t>保存按键</t>
-  </si>
-  <si>
     <t>返回按键</t>
   </si>
   <si>
@@ -464,48 +404,6 @@
     <t>0x0045</t>
   </si>
   <si>
-    <t>0x0047</t>
-  </si>
-  <si>
-    <t>0x0049</t>
-  </si>
-  <si>
-    <t>0x0051</t>
-  </si>
-  <si>
-    <t>0x0053</t>
-  </si>
-  <si>
-    <t>0x0055</t>
-  </si>
-  <si>
-    <t>0x0057</t>
-  </si>
-  <si>
-    <t>0x0059</t>
-  </si>
-  <si>
-    <t>0x0061</t>
-  </si>
-  <si>
-    <t>0x0063</t>
-  </si>
-  <si>
-    <t>0x0065</t>
-  </si>
-  <si>
-    <t>0x0067</t>
-  </si>
-  <si>
-    <t>0x0069</t>
-  </si>
-  <si>
-    <t>0x0071</t>
-  </si>
-  <si>
-    <t>0x0073</t>
-  </si>
-  <si>
     <t>电磁铁33~48</t>
   </si>
   <si>
@@ -524,82 +422,16 @@
     <t>电磁铁113~128</t>
   </si>
   <si>
-    <t>电磁铁129~144</t>
-  </si>
-  <si>
-    <t>电磁铁145~160</t>
-  </si>
-  <si>
-    <t>电磁铁161~176</t>
-  </si>
-  <si>
-    <t>电磁铁177~192</t>
-  </si>
-  <si>
-    <t>电磁铁193~208</t>
-  </si>
-  <si>
-    <t>电磁铁209~224</t>
-  </si>
-  <si>
-    <t>电磁铁225~240</t>
-  </si>
-  <si>
-    <t>电磁铁241~256</t>
-  </si>
-  <si>
-    <t>电磁铁257~272</t>
-  </si>
-  <si>
-    <t>电磁铁273~288</t>
-  </si>
-  <si>
-    <t>电磁铁289~304</t>
-  </si>
-  <si>
-    <t>电磁铁305~320</t>
-  </si>
-  <si>
-    <t>电磁铁321~336</t>
-  </si>
-  <si>
-    <t>电磁铁337~352</t>
-  </si>
-  <si>
-    <t>电磁铁353~368</t>
-  </si>
-  <si>
-    <t>电磁铁369~384</t>
-  </si>
-  <si>
-    <t>电磁铁385~400</t>
-  </si>
-  <si>
-    <t>电磁铁401~416</t>
-  </si>
-  <si>
-    <t>电磁铁417~432</t>
-  </si>
-  <si>
-    <t>电磁铁433~448</t>
-  </si>
-  <si>
     <t>16bit</t>
   </si>
   <si>
     <t>8bit</t>
   </si>
   <si>
-    <t>电磁铁449~464</t>
-  </si>
-  <si>
-    <t>电磁铁465~480</t>
-  </si>
-  <si>
-    <t>电磁铁481~496</t>
-  </si>
-  <si>
-    <t>电磁铁497~512</t>
+    <t>内卡复制到外卡按键</t>
+  </si>
+  <si>
+    <t>外卡复制到内卡按键</t>
   </si>
 </sst>
 </file>
@@ -1019,16 +851,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,13 +890,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,65 +904,65 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1137,21 +970,21 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,21 +992,21 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,21 +1014,21 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1203,21 +1036,21 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,21 +1058,21 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1247,21 +1080,21 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1269,21 +1102,21 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,21 +1124,21 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,21 +1146,21 @@
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1335,21 +1168,21 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1357,21 +1190,21 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,21 +1212,21 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,383 +1234,75 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
-      <c r="B46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
   <si>
     <t>变量名称</t>
   </si>
@@ -423,9 +423,6 @@
   </si>
   <si>
     <t>16bit</t>
-  </si>
-  <si>
-    <t>8bit</t>
   </si>
   <si>
     <t>内卡复制到外卡按键</t>
@@ -854,7 +851,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +904,7 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,7 +1110,7 @@
         <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -1124,7 +1121,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -23,9 +23,6 @@
     <t>变量地址</t>
   </si>
   <si>
-    <t>0x0000</t>
-  </si>
-  <si>
     <t>变量值含义</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>外卡复制到内卡按键</t>
+  </si>
+  <si>
+    <t>0x000F</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,436 +870,436 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
         <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1323,233 +1323,233 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>变量名称</t>
   </si>
@@ -269,9 +269,6 @@
     <t>件数</t>
   </si>
   <si>
-    <t>花样号</t>
-  </si>
-  <si>
     <t>当前步数</t>
   </si>
   <si>
@@ -429,6 +426,15 @@
   </si>
   <si>
     <t>0x000F</t>
+  </si>
+  <si>
+    <t>0x000A</t>
+  </si>
+  <si>
+    <t>当前花样号</t>
+  </si>
+  <si>
+    <t>总花样数</t>
   </si>
 </sst>
 </file>
@@ -848,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +882,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -893,7 +899,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -901,183 +907,183 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -1085,10 +1091,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -1096,10 +1102,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -1107,10 +1113,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -1118,10 +1124,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -1129,10 +1135,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1140,10 +1146,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -1151,10 +1157,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -1162,10 +1168,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1173,10 +1179,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
@@ -1184,10 +1190,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -1195,10 +1201,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -1206,10 +1212,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -1217,10 +1223,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
@@ -1228,10 +1234,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -1239,67 +1245,78 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -320,18 +320,6 @@
     <t>下一步按键</t>
   </si>
   <si>
-    <t>加步按键</t>
-  </si>
-  <si>
-    <t>减步按键</t>
-  </si>
-  <si>
-    <t>增花按键</t>
-  </si>
-  <si>
-    <t>删花按键</t>
-  </si>
-  <si>
     <t>返回按键</t>
   </si>
   <si>
@@ -435,6 +423,18 @@
   </si>
   <si>
     <t>总花样数</t>
+  </si>
+  <si>
+    <t>保存按键</t>
+  </si>
+  <si>
+    <t>清除按钮</t>
+  </si>
+  <si>
+    <t>全选按键</t>
+  </si>
+  <si>
+    <t>电机回零按键</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -899,7 +899,7 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,21 +907,21 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,18 +932,18 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,18 +954,18 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,18 +987,18 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,18 +1009,18 @@
         <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,21 +1028,21 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,21 +1050,21 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,15 +1072,15 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>92</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -1138,7 +1138,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>96</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>98</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
@@ -1204,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -1226,7 +1226,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -1248,7 +1248,7 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="2988"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>0x0044</t>
   </si>
   <si>
-    <t>0x0001</t>
-  </si>
-  <si>
     <t>0x0003</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>电机回零按键</t>
+  </si>
+  <si>
+    <t>0x000E</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,76 +907,76 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,21 +984,21 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,21 +1006,21 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,21 +1028,21 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,21 +1050,21 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,18 +1072,18 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -1094,7 +1094,7 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -1116,7 +1116,7 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -1138,7 +1138,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -1160,7 +1160,7 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1182,7 +1182,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>62</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
@@ -1204,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -1226,7 +1226,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -1248,7 +1248,7 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="2988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
   </bookViews>
   <sheets>
     <sheet name="变量地址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
   <si>
     <t>变量名称</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>0x000E</t>
+  </si>
+  <si>
+    <t>掉电记忆</t>
   </si>
 </sst>
 </file>
@@ -856,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,6 +1260,12 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
